--- a/GardenAndOgorodShop/bin/Debug/templatesAgreements/templateReportControlProducts.xlsx
+++ b/GardenAndOgorodShop/bin/Debug/templatesAgreements/templateReportControlProducts.xlsx
@@ -1,18 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28706"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="140" documentId="11_9E4E55BF84DCCE936123EA198B31F45B1AF97439" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6D965B1D-41C1-4ACA-8BCA-F4C4F31728CE}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -51,9 +50,6 @@
     <t>Цена</t>
   </si>
   <si>
-    <t>Сезонная скидка</t>
-  </si>
-  <si>
     <t>Стоимость</t>
   </si>
   <si>
@@ -67,13 +63,16 @@
   </si>
   <si>
     <t>Ghbvth</t>
+  </si>
+  <si>
+    <t>сез. скидка</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -105,6 +104,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -234,28 +241,31 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -306,14 +316,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>676275</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>733425</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>276225</xdr:rowOff>
     </xdr:to>
@@ -322,7 +332,7 @@
         <xdr:cNvPr id="2" name="Рисунок 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EECD30CC-4C6F-C208-61E6-03064AF363B6}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EECD30CC-4C6F-C208-61E6-03064AF363B6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -331,15 +341,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3810000" y="523875"/>
-          <a:ext cx="466725" cy="466725"/>
+          <a:off x="4267200" y="523875"/>
+          <a:ext cx="571500" cy="466725"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -394,7 +404,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Aptos Display" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -446,7 +456,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+        <a:latin typeface="Aptos Narrow"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -660,229 +670,229 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="A15" sqref="A15:A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="29.28515625" customWidth="1"/>
-    <col min="2" max="2" width="8.28515625" customWidth="1"/>
-    <col min="3" max="3" width="7.140625" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" customWidth="1"/>
+    <col min="1" max="1" width="24.875" customWidth="1"/>
+    <col min="2" max="2" width="7" customWidth="1"/>
+    <col min="3" max="3" width="5.875" customWidth="1"/>
+    <col min="4" max="4" width="8.625" customWidth="1"/>
+    <col min="5" max="5" width="13.125" customWidth="1"/>
+    <col min="6" max="6" width="13.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18.75" customHeight="1">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
     </row>
     <row r="2" spans="1:6" ht="18.75" customHeight="1">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
     </row>
     <row r="3" spans="1:6" ht="18.75" customHeight="1">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:6" ht="25.5" customHeight="1">
-      <c r="A4" s="8"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
     </row>
     <row r="5" spans="1:6" ht="15.75">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
     </row>
     <row r="6" spans="1:6" ht="15" customHeight="1">
-      <c r="A6" s="9"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="11"/>
+      <c r="A6" s="10"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="12"/>
     </row>
     <row r="7" spans="1:6" ht="30.75" customHeight="1">
-      <c r="A7" s="12"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="14"/>
+      <c r="A7" s="13"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="15"/>
     </row>
     <row r="8" spans="1:6" ht="30" customHeight="1">
-      <c r="A8" s="12"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="14"/>
+      <c r="A8" s="13"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="15"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="12"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="14"/>
+      <c r="A9" s="13"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="15"/>
     </row>
     <row r="10" spans="1:6" ht="30" customHeight="1">
-      <c r="A10" s="12"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="14"/>
+      <c r="A10" s="13"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="15"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="12"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="14"/>
+      <c r="A11" s="13"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="15"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="12"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="14"/>
+      <c r="A12" s="13"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="15"/>
     </row>
     <row r="13" spans="1:6" ht="30.75" customHeight="1">
-      <c r="A13" s="12"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="14"/>
+      <c r="A13" s="13"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="15"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="15"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="17"/>
-    </row>
-    <row r="15" spans="1:6" ht="15.75">
-      <c r="A15" s="6" t="s">
+      <c r="A14" s="16"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="18"/>
+    </row>
+    <row r="15" spans="1:6" ht="15">
+      <c r="A15" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="F15" s="8"/>
+    </row>
+    <row r="16" spans="1:6" ht="15">
+      <c r="A16" s="5"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F15" s="5"/>
-    </row>
-    <row r="16" spans="1:6" ht="15.75">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="1" t="s">
+      <c r="F16" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F16" s="1" t="s">
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="7" t="s">
+      <c r="B17" s="1">
+        <v>3</v>
+      </c>
+      <c r="C17" s="1">
+        <v>5</v>
+      </c>
+      <c r="D17" s="1">
         <v>10</v>
       </c>
-      <c r="B17" s="7">
-        <v>3</v>
-      </c>
-      <c r="C17" s="7">
-        <v>5</v>
-      </c>
-      <c r="D17" s="7">
-        <v>10</v>
-      </c>
-      <c r="E17" s="7">
+      <c r="E17" s="1">
         <f>B17*C17</f>
         <v>15</v>
       </c>
-      <c r="F17" s="7">
+      <c r="F17" s="1">
         <f>E17-E17*(D17/100)</f>
         <v>13.5</v>
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B18" s="7">
+      <c r="A18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="1">
         <v>5</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C18" s="1">
         <v>6</v>
       </c>
-      <c r="D18" s="7">
+      <c r="D18" s="1">
         <v>10</v>
       </c>
-      <c r="E18" s="7">
+      <c r="E18" s="1">
         <f>B18*C18</f>
         <v>30</v>
       </c>
-      <c r="F18" s="7">
+      <c r="F18" s="1">
         <f>E18-E18*(D18/100)</f>
         <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="7"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1">
         <f>SUM(F17:F18)</f>
         <v>40.5</v>
       </c>
@@ -900,6 +910,7 @@
     <mergeCell ref="A6:F14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>